--- a/data/trans_bre/P23_9_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_9_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,07</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>12,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,13%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-15,73%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>38,51%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>-4,62%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>44,89%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>104,04%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 8,23</t>
+          <t>-8,37; 11,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 3,57</t>
+          <t>-9,43; 7,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 12,4</t>
+          <t>0,65; 13,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 9,98</t>
+          <t>3,56; 22,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-48,04; 54,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,09; 16,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 101,09</t>
+          <t>-37,74; 89,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 57,03</t>
+          <t>-31,25; 37,7</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2,89; 102,18</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>17,0; 304,38</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,46%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-1,83%</t>
+          <t>-14,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,22%</t>
+          <t>3,32%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-4,02%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-18,55%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 3,65</t>
+          <t>-9,46; 3,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 4,47</t>
+          <t>-5,62; 5,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 4,34</t>
+          <t>-6,84; 3,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 4,27</t>
+          <t>-8,12; 2,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,16; 29,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 28,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 33,5</t>
+          <t>-45,17; 28,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,8; 28,12</t>
+          <t>-24,29; 35,91</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-32,56; 23,76</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-48,8; 23,67</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,21%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>43,43%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-14,02%</t>
+          <t>7,31%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>45,73%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-19,16%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 4,95</t>
+          <t>-6,81; 6,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 7,57</t>
+          <t>-4,86; 6,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 10,78</t>
+          <t>1,74; 11,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 4,35</t>
+          <t>-6,67; 2,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,73; 48,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 53,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,85; 89,71</t>
+          <t>-38,82; 65,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-50,61; 55,79</t>
+          <t>-23,76; 47,4</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8,96; 96,88</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-52,87; 36,04</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,06%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>-13,92%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4,22%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 3,16</t>
+          <t>-2,83; 7,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 3,07</t>
+          <t>-11,14; 3,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 6,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 4,16</t>
+          <t>-4,93; 6,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 22,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 16,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 46,12</t>
+          <t>-18,78; 62,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 25,4</t>
+          <t>-40,03; 18,72</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-34,0; 69,69</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,57</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,62%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>22,67%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,12%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 3,56</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,51; 2,91</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 6,62</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 3,95</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-17,53; 27,69</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-15,69; 16,12</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 47,22</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-16,49; 37,67</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_9_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_9_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,15</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,16</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>12,55</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>5,69%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-4,62%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>44,89%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>104,04%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-0.948904129781869</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.574347621525615</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.180248697833419</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>12.9913865263118</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-0.05053705175677718</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.06238472786593811</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.4583120953915039</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.091940277073537</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,37; 11,01</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,43; 7,37</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,65; 13,1</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3,56; 22,48</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-37,74; 89,89</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-31,25; 37,7</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>2,89; 102,18</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>17,0; 304,38</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-10.74992000385967</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.10865181377381</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.8393943654051211</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>3.698386577021768</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.4424595151175438</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3321248503346401</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.02693722049733668</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.1978700087509458</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.645965267031045</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.81240747568514</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>13.12522083157093</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>22.85701556564606</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.7664737561223939</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.3611368297025448</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.050222885262794</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>3.228764496377206</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,5</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,67</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,52</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-14,97%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3,32%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-4,02%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-18,55%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,46; 3,45</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,62; 5,62</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,84; 3,33</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-8,12; 2,46</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-45,17; 28,2</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-24,29; 35,91</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-32,56; 23,76</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-48,8; 23,67</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-1.727108682169232</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.084655482295785</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.2017971702051008</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-2.498825711778657</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>-0.1042755268697922</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.05967612493446548</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.01248930700471393</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.1838995904087587</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,51</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,91</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,15%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>7,31%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>45,73%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-19,16%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.573134488380378</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.136137908831107</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-6.348903707362312</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-8.258729794506209</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.426671848709577</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.229142277051115</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3049044963492141</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.494954437152154</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,81; 6,58</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,86; 6,66</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 11,62</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,67; 2,53</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-38,82; 65,4</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-23,76; 47,4</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>8,96; 96,88</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-52,87; 36,04</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.26921764327906</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.085806429411116</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.826623142539019</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.421326126280902</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.3292735643682073</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.399839638927837</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.2832438514964999</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.2247440116095664</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-3,11</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>17,55%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-13,92%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>4,22%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.7858190397145554</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.8803878170463186</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.342651321617448</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.129849826932707</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.06124385843379607</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.05087770052326716</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.4413783659449423</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.2116695456391849</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,83; 7,07</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-11,14; 3,15</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,93; 6,35</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-18,78; 62,65</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-40,03; 18,72</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-34,0; 69,69</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.2434366338548</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.337857835501426</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1.384176050394926</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.908024767895493</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.3720749538403645</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2537876333693946</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.07260366454420597</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.5458429864648517</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.700255835503636</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.516875946909161</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.42336448517626</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.171434741228429</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.7285937561895988</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.4327942116634084</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.9510113730957318</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.307210061443222</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,57</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>3,71%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-1,62%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>22,67%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>8,12%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,06; 3,56</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; 2,91</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 6,62</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,23; 3,95</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-17,53; 27,69</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-15,69; 16,12</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>1,34; 47,22</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-16,49; 37,67</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.5748401841502548</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.5935993639096249</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.720219582882123</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.260925386027227</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>-0.03698040584969773</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.03077843852528851</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.2401251210263091</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.1048426758662787</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.574754787545317</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.124062445942954</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.3374627700907983</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.704992742087536</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.259511721955763</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1483208803945966</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.01944228980080806</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1957468600718404</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.305191056248731</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.105017177249153</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6.863637259459203</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.073845445821594</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.246539537355361</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2353914260159546</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.4949934013352131</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.4925967469019821</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
